--- a/results/comparaison/WM/depolarization/mean_normalized.xlsx
+++ b/results/comparaison/WM/depolarization/mean_normalized.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CS7"/>
+  <dimension ref="A1:CW7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:97">
+    <row r="1" spans="1:101">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -661,8 +661,20 @@
       <c r="CS1" s="1">
         <v>95</v>
       </c>
+      <c r="CT1" s="1">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1">
+        <v>99</v>
+      </c>
     </row>
-    <row r="2" spans="1:97">
+    <row r="2" spans="1:101">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -954,47 +966,92 @@
       <c r="CS2">
         <v>1</v>
       </c>
+      <c r="CT2">
+        <v>1</v>
+      </c>
+      <c r="CU2">
+        <v>1</v>
+      </c>
+      <c r="CV2">
+        <v>1</v>
+      </c>
+      <c r="CW2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:97">
+    <row r="3" spans="1:101">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
         <v>1.00452944878236</v>
       </c>
+      <c r="C3">
+        <v>0.9389611814966559</v>
+      </c>
+      <c r="D3">
+        <v>0.9396019470476155</v>
+      </c>
       <c r="E3">
+        <v>0.9972268296138421</v>
+      </c>
+      <c r="F3">
         <v>0.9963137860466798</v>
       </c>
-      <c r="F3">
+      <c r="G3">
+        <v>0.9844368601558439</v>
+      </c>
+      <c r="H3">
         <v>1.001937948127024</v>
       </c>
-      <c r="H3">
+      <c r="I3">
+        <v>0.9477182972458144</v>
+      </c>
+      <c r="J3">
         <v>0.9953885203195347</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>0.9987981426192014</v>
       </c>
-      <c r="K3">
-        <v>1.005523820912984</v>
+      <c r="L3">
+        <v>0.9710590007057636</v>
       </c>
       <c r="M3">
         <v>1.00617274042016</v>
       </c>
       <c r="N3">
+        <v>1.005523820912984</v>
+      </c>
+      <c r="O3">
+        <v>0.9862422499049468</v>
+      </c>
+      <c r="P3">
         <v>0.9973568096534797</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>0.9834017658119164</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>1.004492946981596</v>
       </c>
       <c r="S3">
-        <v>0.9926454828648912</v>
+        <v>0.9635910589883695</v>
+      </c>
+      <c r="T3">
+        <v>0.9566745219921579</v>
+      </c>
+      <c r="U3">
+        <v>0.9738243385190851</v>
+      </c>
+      <c r="V3">
+        <v>0.9794718992899288</v>
       </c>
       <c r="W3">
         <v>0.9957327290154923</v>
       </c>
+      <c r="X3">
+        <v>0.9977766786238853</v>
+      </c>
       <c r="Y3">
         <v>0.9957757829265111</v>
       </c>
@@ -1002,350 +1059,842 @@
         <v>1.000035081719287</v>
       </c>
       <c r="AA3">
-        <v>0.9862535383810095</v>
+        <v>0.9726420568985041</v>
       </c>
       <c r="AB3">
-        <v>1.007663602471968</v>
+        <v>0.9822803941464984</v>
+      </c>
+      <c r="AC3">
+        <v>0.949767626822173</v>
+      </c>
+      <c r="AD3">
+        <v>0.9933724609542706</v>
+      </c>
+      <c r="AF3">
+        <v>1.005798319266422</v>
+      </c>
+      <c r="AG3">
+        <v>1.013319682830009</v>
+      </c>
+      <c r="AH3">
+        <v>0.9541553055612552</v>
+      </c>
+      <c r="AI3">
+        <v>1.005114480110605</v>
+      </c>
+      <c r="AJ3">
+        <v>1.006989700490865</v>
+      </c>
+      <c r="AL3">
+        <v>0.9646658126651434</v>
+      </c>
+      <c r="AM3">
+        <v>0.9756439135564644</v>
+      </c>
+      <c r="AN3">
+        <v>0.9939590815616733</v>
+      </c>
+      <c r="AO3">
+        <v>1.023928265644161</v>
+      </c>
+      <c r="AP3">
+        <v>1.002903303131952</v>
       </c>
       <c r="AQ3">
-        <v>1.00288706974524</v>
+        <v>1.00167244152025</v>
       </c>
       <c r="AR3">
-        <v>0.9951241384999353</v>
+        <v>0.9929720118633755</v>
       </c>
       <c r="AS3">
-        <v>1.002725022044845</v>
+        <v>1.064940512569952</v>
       </c>
       <c r="AT3">
-        <v>0.9933724609542706</v>
+        <v>1.014669290095822</v>
       </c>
       <c r="AU3">
-        <v>1.005798319266422</v>
+        <v>0.9774815314802836</v>
+      </c>
+      <c r="AV3">
+        <v>1.004065876892815</v>
       </c>
       <c r="AX3">
-        <v>1.005114480110605</v>
+        <v>0.9323344795414213</v>
+      </c>
+      <c r="AY3">
+        <v>1.026661910005438</v>
+      </c>
+      <c r="AZ3">
+        <v>1.00710440279149</v>
+      </c>
+      <c r="BA3">
+        <v>1.043264650648256</v>
       </c>
       <c r="BB3">
-        <v>1.016538074286711</v>
+        <v>1.017247117445881</v>
       </c>
       <c r="BC3">
-        <v>0.9974856522937594</v>
+        <v>0.963725466883195</v>
+      </c>
+      <c r="BD3">
+        <v>1.004231214373738</v>
+      </c>
+      <c r="BE3">
+        <v>0.9647301989362415</v>
       </c>
       <c r="BF3">
-        <v>1.015636523737893</v>
+        <v>1.019904271895038</v>
+      </c>
+      <c r="BG3">
+        <v>1.002573719302408</v>
+      </c>
+      <c r="BH3">
+        <v>1.023076469041319</v>
       </c>
       <c r="BI3">
-        <v>1.013049446035482</v>
+        <v>1.050756485138985</v>
       </c>
       <c r="BJ3">
-        <v>1.019080940792352</v>
+        <v>0.9845703682050291</v>
       </c>
       <c r="BK3">
-        <v>1.0165416687192</v>
+        <v>0.9935055005317559</v>
+      </c>
+      <c r="BM3">
+        <v>1.01457608840844</v>
+      </c>
+      <c r="BN3">
+        <v>0.9921729753635508</v>
       </c>
       <c r="BO3">
-        <v>1.025366857743084</v>
+        <v>1.016772763118815</v>
       </c>
       <c r="BP3">
-        <v>0.9979240797617716</v>
+        <v>1.033023619533118</v>
       </c>
       <c r="BQ3">
-        <v>1.024174677968089</v>
+        <v>0.9988950793480552</v>
       </c>
       <c r="BR3">
-        <v>1.008217033618566</v>
+        <v>1.02487737112854</v>
       </c>
       <c r="BS3">
-        <v>1.036899504646262</v>
+        <v>1.053834513903263</v>
+      </c>
+      <c r="BT3">
+        <v>1.009594257926027</v>
       </c>
       <c r="BU3">
-        <v>1.02372321322278</v>
+        <v>1.003767318175638</v>
       </c>
       <c r="BV3">
-        <v>0.9931493825024239</v>
+        <v>0.910912771675934</v>
+      </c>
+      <c r="BW3">
+        <v>1.02280912844187</v>
+      </c>
+      <c r="BX3">
+        <v>1.01302433332018</v>
+      </c>
+      <c r="BY3">
+        <v>0.9952560194816767</v>
+      </c>
+      <c r="BZ3">
+        <v>0.9809967077980576</v>
+      </c>
+      <c r="CA3">
+        <v>0.9644692006404755</v>
+      </c>
+      <c r="CB3">
+        <v>1.003883273840516</v>
+      </c>
+      <c r="CC3">
+        <v>0.9911620216123175</v>
+      </c>
+      <c r="CD3">
+        <v>0.98509238999953</v>
+      </c>
+      <c r="CE3">
+        <v>0.9272571347588943</v>
+      </c>
+      <c r="CF3">
+        <v>1.001330087971949</v>
       </c>
       <c r="CG3">
-        <v>0.9978102974682674</v>
+        <v>1.088654741204045</v>
+      </c>
+      <c r="CH3">
+        <v>0.9741257929587858</v>
+      </c>
+      <c r="CI3">
+        <v>0.99806859830267</v>
       </c>
       <c r="CK3">
-        <v>0.9757589228662625</v>
+        <v>0.9718424801943822</v>
+      </c>
+      <c r="CL3">
+        <v>1.01855959649077</v>
+      </c>
+      <c r="CM3">
+        <v>1.008570117541284</v>
       </c>
       <c r="CN3">
-        <v>0.9715584020660112</v>
+        <v>1.090113856050562</v>
+      </c>
+      <c r="CO3">
+        <v>0.996104074018889</v>
+      </c>
+      <c r="CP3">
+        <v>0.9802243167294259</v>
+      </c>
+      <c r="CQ3">
+        <v>1.017389330762628</v>
+      </c>
+      <c r="CR3">
+        <v>1.028313790071425</v>
+      </c>
+      <c r="CS3">
+        <v>1.050199564100622</v>
+      </c>
+      <c r="CT3">
+        <v>0.957815012442843</v>
+      </c>
+      <c r="CU3">
+        <v>0.9643384568960381</v>
+      </c>
+      <c r="CV3">
+        <v>1.018585265746884</v>
       </c>
     </row>
-    <row r="4" spans="1:97">
+    <row r="4" spans="1:101">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
         <v>1.011831591454537</v>
       </c>
+      <c r="C4">
+        <v>0.9618647267715758</v>
+      </c>
+      <c r="D4">
+        <v>0.9417831716341125</v>
+      </c>
       <c r="E4">
+        <v>1.00677984845727</v>
+      </c>
+      <c r="F4">
         <v>1.002650066245957</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>1.007984115454025</v>
       </c>
-      <c r="H4">
+      <c r="I4">
+        <v>1.006880925726526</v>
+      </c>
+      <c r="J4">
         <v>1.002448203421191</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>1.023144255198761</v>
       </c>
-      <c r="K4">
-        <v>1.012227655183452</v>
+      <c r="L4">
+        <v>0.9837407067628693</v>
       </c>
       <c r="M4">
         <v>1.012363979002278</v>
       </c>
       <c r="N4">
+        <v>1.012227655183452</v>
+      </c>
+      <c r="O4">
+        <v>0.9636167247540729</v>
+      </c>
+      <c r="P4">
         <v>1.004663122017287</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>0.9989109092833461</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>1.01272185046379</v>
       </c>
       <c r="S4">
-        <v>1.004179905198028</v>
+        <v>0.9699803439516178</v>
+      </c>
+      <c r="T4">
+        <v>0.9698808507192774</v>
+      </c>
+      <c r="U4">
+        <v>0.9418225993030183</v>
+      </c>
+      <c r="V4">
+        <v>0.9671951001442035</v>
       </c>
       <c r="W4">
         <v>1.002329391898251</v>
       </c>
+      <c r="X4">
+        <v>0.9756583936115544</v>
+      </c>
       <c r="Y4">
         <v>1.002337353940017</v>
       </c>
       <c r="Z4">
         <v>1.006245004797994</v>
       </c>
+      <c r="AA4">
+        <v>0.9731879826413687</v>
+      </c>
       <c r="AB4">
-        <v>1.005089155147583</v>
+        <v>1.00815682766715</v>
+      </c>
+      <c r="AC4">
+        <v>0.9403516255672866</v>
+      </c>
+      <c r="AD4">
+        <v>1.001094363805187</v>
+      </c>
+      <c r="AF4">
+        <v>1.003437756791389</v>
+      </c>
+      <c r="AG4">
+        <v>1.019199231802994</v>
       </c>
       <c r="AH4">
+        <v>0.9649909031757367</v>
+      </c>
+      <c r="AI4">
+        <v>1.003280977126443</v>
+      </c>
+      <c r="AJ4">
+        <v>1.01258783910604</v>
+      </c>
+      <c r="AL4">
+        <v>0.9641811855775162</v>
+      </c>
+      <c r="AM4">
+        <v>0.9763808953835758</v>
+      </c>
+      <c r="AN4">
         <v>0.9859409026391109</v>
       </c>
-      <c r="AJ4">
+      <c r="AO4">
         <v>1.011697575509137</v>
       </c>
-      <c r="AK4">
+      <c r="AP4">
+        <v>1.000092266822392</v>
+      </c>
+      <c r="AQ4">
+        <v>0.9986070755998566</v>
+      </c>
+      <c r="AR4">
         <v>1.021154933099058</v>
       </c>
-      <c r="AM4">
-        <v>0.9922859795612026</v>
-      </c>
-      <c r="AQ4">
-        <v>1.002564941651687</v>
-      </c>
-      <c r="AR4">
-        <v>0.9918141765235143</v>
-      </c>
-      <c r="AS4">
-        <v>0.9987615984018904</v>
-      </c>
       <c r="AT4">
-        <v>1.001094363805187</v>
+        <v>1.015559054373001</v>
       </c>
       <c r="AU4">
-        <v>1.003437756791389</v>
-      </c>
-      <c r="AX4">
-        <v>1.003280977126443</v>
+        <v>1.026113071961346</v>
+      </c>
+      <c r="AV4">
+        <v>1.003080982040005</v>
+      </c>
+      <c r="AZ4">
+        <v>1.0061067850487</v>
+      </c>
+      <c r="BA4">
+        <v>1.039129682970249</v>
       </c>
       <c r="BB4">
-        <v>1.019017261362181</v>
+        <v>1.013529668369518</v>
       </c>
       <c r="BC4">
-        <v>0.995411722032518</v>
+        <v>0.9549852566342479</v>
+      </c>
+      <c r="BD4">
+        <v>0.9737006292349911</v>
+      </c>
+      <c r="BE4">
+        <v>0.9660452146091212</v>
+      </c>
+      <c r="BF4">
+        <v>1.020113032960212</v>
+      </c>
+      <c r="BG4">
+        <v>1.002178297429827</v>
+      </c>
+      <c r="BH4">
+        <v>1.003295654673835</v>
       </c>
       <c r="BI4">
-        <v>1.014702829437113</v>
+        <v>1.051273477163342</v>
       </c>
       <c r="BJ4">
-        <v>1.008028400197157</v>
+        <v>0.9603557945186103</v>
       </c>
       <c r="BK4">
-        <v>1.013320678687742</v>
+        <v>0.9603029560025611</v>
+      </c>
+      <c r="BL4">
+        <v>0.9765886875211011</v>
+      </c>
+      <c r="BM4">
+        <v>0.9990411384499287</v>
+      </c>
+      <c r="BN4">
+        <v>0.9332571661668422</v>
+      </c>
+      <c r="BO4">
+        <v>1.017204046049358</v>
       </c>
       <c r="BP4">
-        <v>0.9939154748776413</v>
-      </c>
-      <c r="BS4">
-        <v>1.032946877845401</v>
+        <v>1.016379289860855</v>
+      </c>
+      <c r="BQ4">
+        <v>0.999004027029051</v>
+      </c>
+      <c r="BR4">
+        <v>1.020549832429919</v>
+      </c>
+      <c r="BT4">
+        <v>1.009026069137636</v>
       </c>
       <c r="BU4">
-        <v>1.023911992691068</v>
+        <v>1.001138017418129</v>
       </c>
       <c r="BV4">
-        <v>1.006847044712416</v>
+        <v>0.9269997312555277</v>
+      </c>
+      <c r="BW4">
+        <v>1.02324701885014</v>
+      </c>
+      <c r="BX4">
+        <v>0.9914470663638265</v>
+      </c>
+      <c r="BY4">
+        <v>1.006441430032041</v>
+      </c>
+      <c r="BZ4">
+        <v>0.9546987983791079</v>
+      </c>
+      <c r="CA4">
+        <v>0.9695832113110441</v>
+      </c>
+      <c r="CB4">
+        <v>1.020676334860735</v>
+      </c>
+      <c r="CC4">
+        <v>0.9866509412078015</v>
+      </c>
+      <c r="CD4">
+        <v>0.9829017239893981</v>
+      </c>
+      <c r="CE4">
+        <v>0.9166375020561112</v>
       </c>
       <c r="CF4">
-        <v>0.9832399789664581</v>
+        <v>0.9935838478852803</v>
+      </c>
+      <c r="CG4">
+        <v>1.024125501064968</v>
       </c>
       <c r="CH4">
-        <v>0.9794534882970528</v>
+        <v>0.9717149151062968</v>
+      </c>
+      <c r="CI4">
+        <v>1.000100068727437</v>
       </c>
       <c r="CK4">
-        <v>0.9814644759318842</v>
+        <v>0.9605104794930763</v>
+      </c>
+      <c r="CL4">
+        <v>1.04967096390604</v>
+      </c>
+      <c r="CM4">
+        <v>0.9726963931417681</v>
       </c>
       <c r="CN4">
-        <v>0.9730498110049756</v>
+        <v>1.054717297321935</v>
+      </c>
+      <c r="CO4">
+        <v>0.9735282917816594</v>
+      </c>
+      <c r="CP4">
+        <v>0.9720697374370437</v>
+      </c>
+      <c r="CQ4">
+        <v>1.021091194828729</v>
+      </c>
+      <c r="CR4">
+        <v>1.00364317818768</v>
+      </c>
+      <c r="CS4">
+        <v>1.041901217340151</v>
+      </c>
+      <c r="CT4">
+        <v>0.9898812383336105</v>
+      </c>
+      <c r="CU4">
+        <v>0.988612359359698</v>
+      </c>
+      <c r="CV4">
+        <v>1.014838395775379</v>
+      </c>
+      <c r="CW4">
+        <v>0.9980722085460024</v>
       </c>
     </row>
-    <row r="5" spans="1:97">
+    <row r="5" spans="1:101">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
         <v>1.004411909544691</v>
       </c>
+      <c r="C5">
+        <v>0.952568239053075</v>
+      </c>
       <c r="D5">
+        <v>0.9198634218622291</v>
+      </c>
+      <c r="E5">
         <v>0.9875605279358304</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.9981407483956996</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>1.012233266235611</v>
       </c>
-      <c r="H5">
+      <c r="I5">
+        <v>0.964401935407121</v>
+      </c>
+      <c r="J5">
         <v>0.9969577261957954</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>1.008849816548521</v>
       </c>
-      <c r="K5">
-        <v>1.006453877650044</v>
+      <c r="L5">
+        <v>0.9495334012201992</v>
       </c>
       <c r="M5">
         <v>0.994514249634155</v>
       </c>
       <c r="N5">
+        <v>1.006453877650044</v>
+      </c>
+      <c r="O5">
+        <v>0.9467550363511198</v>
+      </c>
+      <c r="P5">
         <v>0.9970806870687399</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>0.9712477867573642</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>1.008795424047177</v>
       </c>
       <c r="S5">
-        <v>0.996211959808433</v>
+        <v>0.9423306406343257</v>
+      </c>
+      <c r="T5">
+        <v>0.9633081091967149</v>
+      </c>
+      <c r="U5">
+        <v>0.9235395527048824</v>
+      </c>
+      <c r="V5">
+        <v>0.9220685776986581</v>
       </c>
       <c r="W5">
         <v>0.9959227320904174</v>
       </c>
+      <c r="X5">
+        <v>0.962175703995518</v>
+      </c>
       <c r="Y5">
         <v>0.9978763429236415</v>
       </c>
       <c r="Z5">
         <v>1.00155952603839</v>
       </c>
+      <c r="AA5">
+        <v>0.9806379185016103</v>
+      </c>
       <c r="AB5">
-        <v>1.000854751770735</v>
+        <v>0.972796447188402</v>
+      </c>
+      <c r="AC5">
+        <v>0.9512867997993116</v>
+      </c>
+      <c r="AD5">
+        <v>0.9882236052220201</v>
+      </c>
+      <c r="AF5">
+        <v>0.9963127651372451</v>
+      </c>
+      <c r="AG5">
+        <v>1.007449760069912</v>
+      </c>
+      <c r="AH5">
+        <v>0.9497341108455256</v>
+      </c>
+      <c r="AI5">
+        <v>0.9968292811116469</v>
+      </c>
+      <c r="AJ5">
+        <v>0.999946061055948</v>
+      </c>
+      <c r="AL5">
+        <v>0.9718453214997467</v>
+      </c>
+      <c r="AM5">
+        <v>0.9711249419327678</v>
+      </c>
+      <c r="AN5">
+        <v>0.9825629943002069</v>
+      </c>
+      <c r="AO5">
+        <v>1.009020096356048</v>
+      </c>
+      <c r="AP5">
+        <v>0.9960423364458717</v>
       </c>
       <c r="AQ5">
-        <v>0.996296506512132</v>
+        <v>0.9868233210901209</v>
       </c>
       <c r="AR5">
-        <v>0.9883192827634745</v>
+        <v>0.9895401524267946</v>
       </c>
       <c r="AS5">
-        <v>0.9894126193599533</v>
+        <v>1.047068243749525</v>
       </c>
       <c r="AT5">
-        <v>0.9882236052220201</v>
+        <v>1.009878433152279</v>
       </c>
       <c r="AU5">
-        <v>0.9963127651372451</v>
-      </c>
-      <c r="AX5">
-        <v>0.9968292811116469</v>
+        <v>0.9691877041017604</v>
+      </c>
+      <c r="AV5">
+        <v>0.9967404689046451</v>
+      </c>
+      <c r="AY5">
+        <v>0.9914782310129036</v>
+      </c>
+      <c r="AZ5">
+        <v>1.005090176458898</v>
+      </c>
+      <c r="BA5">
+        <v>1.040942270087651</v>
       </c>
       <c r="BB5">
-        <v>1.022097160751832</v>
+        <v>1.013010922853467</v>
       </c>
       <c r="BC5">
-        <v>0.9967421965400156</v>
+        <v>0.9633446445560865</v>
+      </c>
+      <c r="BD5">
+        <v>0.9828786325602616</v>
       </c>
       <c r="BE5">
-        <v>1.01412161210063</v>
+        <v>0.9467077053064882</v>
+      </c>
+      <c r="BF5">
+        <v>1.019278984926159</v>
+      </c>
+      <c r="BG5">
+        <v>0.9947604470060132</v>
+      </c>
+      <c r="BH5">
+        <v>0.9792571380493816</v>
       </c>
       <c r="BI5">
-        <v>1.015439965977565</v>
+        <v>1.043652675761322</v>
+      </c>
+      <c r="BJ5">
+        <v>0.9420939456756449</v>
       </c>
       <c r="BK5">
-        <v>1.010120180766406</v>
+        <v>0.9216363163041038</v>
+      </c>
+      <c r="BM5">
+        <v>1.003893606569634</v>
+      </c>
+      <c r="BN5">
+        <v>0.9565727413731631</v>
+      </c>
+      <c r="BO5">
+        <v>1.012813980779269</v>
       </c>
       <c r="BP5">
-        <v>0.9923678119089594</v>
-      </c>
-      <c r="BS5">
-        <v>1.034908763382614</v>
+        <v>1.020753757721895</v>
+      </c>
+      <c r="BQ5">
+        <v>0.9998831377659613</v>
+      </c>
+      <c r="BR5">
+        <v>1.022462351178449</v>
+      </c>
+      <c r="BT5">
+        <v>1.012315398707388</v>
       </c>
       <c r="BU5">
-        <v>1.024015134742001</v>
+        <v>1.002429230893201</v>
       </c>
       <c r="BV5">
-        <v>0.9865839541204345</v>
+        <v>0.9394530955620873</v>
+      </c>
+      <c r="BW5">
+        <v>1.023685502600933</v>
+      </c>
+      <c r="BX5">
+        <v>0.989363126024137</v>
+      </c>
+      <c r="BY5">
+        <v>1.0103253773861</v>
       </c>
       <c r="BZ5">
-        <v>1.055942239405489</v>
+        <v>0.9692673187607589</v>
+      </c>
+      <c r="CA5">
+        <v>0.9660233759261194</v>
+      </c>
+      <c r="CB5">
+        <v>1.037590960070611</v>
       </c>
       <c r="CC5">
-        <v>1.037893369123875</v>
+        <v>1.000405657224542</v>
+      </c>
+      <c r="CD5">
+        <v>0.9886772349835544</v>
+      </c>
+      <c r="CE5">
+        <v>0.938335066875452</v>
+      </c>
+      <c r="CF5">
+        <v>1.034758343577279</v>
+      </c>
+      <c r="CG5">
+        <v>1.078871696465133</v>
       </c>
       <c r="CH5">
-        <v>1.000084062671501</v>
+        <v>0.9815060942155378</v>
+      </c>
+      <c r="CI5">
+        <v>1.009337047949386</v>
       </c>
       <c r="CK5">
-        <v>0.9878460817093944</v>
+        <v>1.001956573171739</v>
+      </c>
+      <c r="CL5">
+        <v>1.007101973697958</v>
+      </c>
+      <c r="CM5">
+        <v>1.01474804546026</v>
+      </c>
+      <c r="CN5">
+        <v>1.09665204131886</v>
+      </c>
+      <c r="CO5">
+        <v>1.00127425819454</v>
       </c>
       <c r="CP5">
-        <v>1.021228225696092</v>
+        <v>0.9938095155358297</v>
+      </c>
+      <c r="CQ5">
+        <v>1.026853965162456</v>
+      </c>
+      <c r="CR5">
+        <v>1.053987379667734</v>
       </c>
       <c r="CS5">
-        <v>1.053987379667734</v>
+        <v>1.067640405238578</v>
+      </c>
+      <c r="CT5">
+        <v>0.9742074023905207</v>
+      </c>
+      <c r="CU5">
+        <v>0.9799368758265666</v>
+      </c>
+      <c r="CV5">
+        <v>1.038223252115245</v>
+      </c>
+      <c r="CW5">
+        <v>1.019215322472047</v>
       </c>
     </row>
-    <row r="6" spans="1:97">
+    <row r="6" spans="1:101">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
         <v>1.002518613988576</v>
       </c>
+      <c r="C6">
+        <v>0.9638340342011332</v>
+      </c>
+      <c r="D6">
+        <v>0.9234758755102788</v>
+      </c>
       <c r="E6">
+        <v>0.9848867161517089</v>
+      </c>
+      <c r="F6">
         <v>1.001637319973155</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>1.01964846766106</v>
       </c>
-      <c r="H6">
+      <c r="I6">
+        <v>0.8892814263897589</v>
+      </c>
+      <c r="J6">
         <v>0.9938475288006902</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>1.021323100696421</v>
       </c>
-      <c r="K6">
-        <v>1.003685363591212</v>
+      <c r="L6">
+        <v>0.9449034963499578</v>
       </c>
       <c r="M6">
         <v>0.9904767164812088</v>
       </c>
       <c r="N6">
+        <v>1.003685363591212</v>
+      </c>
+      <c r="O6">
+        <v>0.915581524487439</v>
+      </c>
+      <c r="P6">
         <v>0.9955571089326001</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
+        <v>0.9617814540767586</v>
+      </c>
+      <c r="R6">
         <v>1.009168522762831</v>
       </c>
       <c r="S6">
-        <v>0.9937220366808667</v>
+        <v>0.9470805429895633</v>
+      </c>
+      <c r="T6">
+        <v>0.9691776842926721</v>
+      </c>
+      <c r="U6">
+        <v>0.9286558471281091</v>
+      </c>
+      <c r="V6">
+        <v>0.8844967349004507</v>
       </c>
       <c r="W6">
         <v>0.9916377010242455</v>
       </c>
+      <c r="X6">
+        <v>0.875080630341029</v>
+      </c>
       <c r="Y6">
         <v>0.9967730100702847</v>
       </c>
@@ -1353,204 +1902,513 @@
         <v>1.004184745933827</v>
       </c>
       <c r="AA6">
-        <v>0.9809024777159311</v>
+        <v>0.9744275192101356</v>
       </c>
       <c r="AB6">
-        <v>1.008713200898562</v>
+        <v>0.9728895231272229</v>
+      </c>
+      <c r="AC6">
+        <v>0.9440559935195809</v>
+      </c>
+      <c r="AD6">
+        <v>0.9888815486079526</v>
+      </c>
+      <c r="AF6">
+        <v>1.002031547091599</v>
+      </c>
+      <c r="AG6">
+        <v>1.001616290132318</v>
+      </c>
+      <c r="AH6">
+        <v>0.9808663805489525</v>
+      </c>
+      <c r="AI6">
+        <v>1.001058440477673</v>
+      </c>
+      <c r="AJ6">
+        <v>1.006755745119439</v>
+      </c>
+      <c r="AK6">
+        <v>0.942191086597245</v>
+      </c>
+      <c r="AL6">
+        <v>0.9591477856979849</v>
+      </c>
+      <c r="AM6">
+        <v>0.9795649260498467</v>
+      </c>
+      <c r="AN6">
+        <v>0.9916315682561428</v>
+      </c>
+      <c r="AO6">
+        <v>1.01285303224182</v>
+      </c>
+      <c r="AP6">
+        <v>1.002571474227465</v>
       </c>
       <c r="AQ6">
-        <v>1.004014562810875</v>
+        <v>0.9881267166157229</v>
       </c>
       <c r="AR6">
-        <v>0.9924111067926676</v>
+        <v>0.9848770311991323</v>
       </c>
       <c r="AS6">
-        <v>0.9938194498691811</v>
+        <v>1.041137781408221</v>
       </c>
       <c r="AT6">
-        <v>0.9888815486079526</v>
+        <v>1.0145672378568</v>
       </c>
       <c r="AU6">
-        <v>1.002031547091599</v>
+        <v>0.9676173552783939</v>
+      </c>
+      <c r="AV6">
+        <v>1.003547636255102</v>
+      </c>
+      <c r="AW6">
+        <v>0.9234642686225435</v>
       </c>
       <c r="AX6">
-        <v>1.001058440477673</v>
+        <v>0.9306877629852434</v>
+      </c>
+      <c r="AY6">
+        <v>0.9732170585710699</v>
       </c>
       <c r="AZ6">
-        <v>1.032897295998274</v>
+        <v>0.9949504255185498</v>
+      </c>
+      <c r="BA6">
+        <v>1.015563795056834</v>
       </c>
       <c r="BB6">
-        <v>1.0138596771222</v>
+        <v>1.006563588576658</v>
+      </c>
+      <c r="BC6">
+        <v>0.9515852009665633</v>
+      </c>
+      <c r="BD6">
+        <v>0.9784751287786647</v>
       </c>
       <c r="BE6">
-        <v>1.008307403836585</v>
+        <v>0.9572545221287946</v>
+      </c>
+      <c r="BF6">
+        <v>1.010746244234663</v>
+      </c>
+      <c r="BG6">
+        <v>0.9878294774311552</v>
+      </c>
+      <c r="BH6">
+        <v>0.9827169507441076</v>
       </c>
       <c r="BI6">
-        <v>1.006763471327011</v>
+        <v>1.031854485642005</v>
       </c>
       <c r="BJ6">
-        <v>1.012509676520331</v>
+        <v>0.9540083668696554</v>
       </c>
       <c r="BK6">
-        <v>1.004079686494527</v>
+        <v>0.9148641947143258</v>
+      </c>
+      <c r="BL6">
+        <v>0.9691001152904486</v>
+      </c>
+      <c r="BM6">
+        <v>1.005412055566224</v>
+      </c>
+      <c r="BN6">
+        <v>0.9568970800464601</v>
+      </c>
+      <c r="BO6">
+        <v>1.004502009373019</v>
       </c>
       <c r="BP6">
-        <v>0.9938313116135155</v>
+        <v>1.014211283914263</v>
+      </c>
+      <c r="BQ6">
+        <v>0.9958998467219935</v>
       </c>
       <c r="BR6">
-        <v>1.002728596543139</v>
+        <v>1.021641720199113</v>
       </c>
       <c r="BS6">
-        <v>1.030107249507904</v>
+        <v>1.035918932077078</v>
+      </c>
+      <c r="BT6">
+        <v>1.005629748904779</v>
       </c>
       <c r="BU6">
-        <v>1.014729943593442</v>
+        <v>1.000648194088474</v>
       </c>
       <c r="BV6">
-        <v>0.9820022019477938</v>
+        <v>0.9199410151625597</v>
+      </c>
+      <c r="BW6">
+        <v>1.016055098298232</v>
+      </c>
+      <c r="BX6">
+        <v>1.002079356406174</v>
+      </c>
+      <c r="BY6">
+        <v>1.004794646817746</v>
       </c>
       <c r="BZ6">
-        <v>1.041104430704227</v>
+        <v>0.9457998763094622</v>
       </c>
       <c r="CA6">
-        <v>0.9989302785260371</v>
+        <v>0.9666503699913782</v>
+      </c>
+      <c r="CB6">
+        <v>0.9991529210253617</v>
       </c>
       <c r="CC6">
-        <v>1.05646969007774</v>
+        <v>0.9955513762749059</v>
+      </c>
+      <c r="CD6">
+        <v>0.9804807888278475</v>
+      </c>
+      <c r="CE6">
+        <v>0.9223336253043012</v>
       </c>
       <c r="CF6">
-        <v>1.003227671183156</v>
+        <v>0.9911105042982168</v>
       </c>
       <c r="CG6">
-        <v>1.002372170641394</v>
+        <v>1.095996911892782</v>
       </c>
       <c r="CH6">
-        <v>0.9844802109387852</v>
+        <v>0.9673322985171554</v>
+      </c>
+      <c r="CI6">
+        <v>0.9994218991755001</v>
       </c>
       <c r="CK6">
-        <v>0.9769575513162181</v>
+        <v>0.9781845988298035</v>
+      </c>
+      <c r="CL6">
+        <v>0.9847096182432457</v>
+      </c>
+      <c r="CM6">
+        <v>1.018180993542118</v>
       </c>
       <c r="CN6">
-        <v>0.9860710134434056</v>
+        <v>1.082904586835141</v>
+      </c>
+      <c r="CO6">
+        <v>0.9765860251451403</v>
       </c>
       <c r="CP6">
-        <v>1.021906497288471</v>
+        <v>0.9988206425409222</v>
+      </c>
+      <c r="CQ6">
+        <v>0.989720994878095</v>
       </c>
       <c r="CR6">
-        <v>0.9962980790963385</v>
+        <v>1.047115798930255</v>
       </c>
       <c r="CS6">
-        <v>1.047115798930255</v>
+        <v>1.033727116123013</v>
+      </c>
+      <c r="CT6">
+        <v>0.948240592769494</v>
+      </c>
+      <c r="CU6">
+        <v>0.9541926676379506</v>
+      </c>
+      <c r="CV6">
+        <v>1.021695469001762</v>
       </c>
     </row>
-    <row r="7" spans="1:97">
+    <row r="7" spans="1:101">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
         <v>1.009031338004149</v>
       </c>
+      <c r="C7">
+        <v>0.9455473423730441</v>
+      </c>
+      <c r="D7">
+        <v>0.9326716142050504</v>
+      </c>
       <c r="E7">
+        <v>0.9477544546553994</v>
+      </c>
+      <c r="F7">
         <v>0.9994604075425532</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>1.01677063339656</v>
       </c>
-      <c r="H7">
+      <c r="I7">
+        <v>1.000922987177013</v>
+      </c>
+      <c r="J7">
         <v>0.9988972468532019</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>1.02063558532455</v>
       </c>
-      <c r="K7">
-        <v>1.007139930615277</v>
+      <c r="L7">
+        <v>0.954775874254352</v>
       </c>
       <c r="M7">
         <v>1.00110071489043</v>
       </c>
       <c r="N7">
+        <v>1.007139930615277</v>
+      </c>
+      <c r="O7">
+        <v>0.9352540395905079</v>
+      </c>
+      <c r="P7">
         <v>0.9983662801125314</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>0.9862394194385325</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>1.007272930206293</v>
       </c>
       <c r="S7">
-        <v>0.9997720832296451</v>
+        <v>0.9601010201063602</v>
+      </c>
+      <c r="T7">
+        <v>0.9714975253949372</v>
+      </c>
+      <c r="U7">
+        <v>0.9262283528101658</v>
+      </c>
+      <c r="V7">
+        <v>0.9404085776812582</v>
       </c>
       <c r="W7">
         <v>0.9967708200557518</v>
       </c>
+      <c r="X7">
+        <v>0.9484339780714873</v>
+      </c>
       <c r="Y7">
         <v>0.9956835589283931</v>
       </c>
       <c r="Z7">
         <v>1.001504998785941</v>
       </c>
+      <c r="AA7">
+        <v>0.9575440667584678</v>
+      </c>
       <c r="AB7">
-        <v>0.9939384737818756</v>
+        <v>0.9938069657582531</v>
+      </c>
+      <c r="AC7">
+        <v>0.9534227099596927</v>
+      </c>
+      <c r="AD7">
+        <v>0.9869849123921081</v>
+      </c>
+      <c r="AE7">
+        <v>0.9699259039027504</v>
+      </c>
+      <c r="AF7">
+        <v>0.9935631461144987</v>
+      </c>
+      <c r="AG7">
+        <v>1.015256720748192</v>
+      </c>
+      <c r="AH7">
+        <v>0.9743497477439567</v>
+      </c>
+      <c r="AI7">
+        <v>0.9961826661989344</v>
+      </c>
+      <c r="AJ7">
+        <v>1.004267400336161</v>
       </c>
       <c r="AK7">
+        <v>0.9723435161620605</v>
+      </c>
+      <c r="AL7">
+        <v>0.978442056792507</v>
+      </c>
+      <c r="AM7">
+        <v>0.9729740232015064</v>
+      </c>
+      <c r="AN7">
+        <v>0.9801436100429582</v>
+      </c>
+      <c r="AO7">
+        <v>1.004880423802165</v>
+      </c>
+      <c r="AP7">
+        <v>0.9898390985395903</v>
+      </c>
+      <c r="AQ7">
+        <v>0.9897335385622754</v>
+      </c>
+      <c r="AR7">
         <v>1.016524322217152</v>
       </c>
-      <c r="AQ7">
-        <v>0.9950660158870129</v>
-      </c>
-      <c r="AR7">
-        <v>0.984881381743649</v>
-      </c>
       <c r="AS7">
-        <v>0.9856043550369504</v>
+        <v>1.029955911084426</v>
       </c>
       <c r="AT7">
-        <v>0.9869849123921081</v>
+        <v>1.005196524691921</v>
       </c>
       <c r="AU7">
-        <v>0.9935631461144987</v>
+        <v>0.9971322951981606</v>
+      </c>
+      <c r="AV7">
+        <v>0.9928754706552376</v>
+      </c>
+      <c r="AW7">
+        <v>0.9135469569880005</v>
       </c>
       <c r="AX7">
-        <v>0.9961826661989344</v>
+        <v>0.9190692216745877</v>
+      </c>
+      <c r="AY7">
+        <v>0.9982806200339076</v>
+      </c>
+      <c r="AZ7">
+        <v>0.9989230062289723</v>
+      </c>
+      <c r="BA7">
+        <v>1.030430511062839</v>
       </c>
       <c r="BB7">
-        <v>1.021655905190471</v>
+        <v>1.009719112438749</v>
       </c>
       <c r="BC7">
-        <v>0.9961769982678925</v>
+        <v>0.9579893593115325</v>
+      </c>
+      <c r="BD7">
+        <v>0.9647111744296831</v>
+      </c>
+      <c r="BE7">
+        <v>0.9688364994697275</v>
+      </c>
+      <c r="BF7">
+        <v>1.007635402573847</v>
+      </c>
+      <c r="BG7">
+        <v>0.9926193136017721</v>
+      </c>
+      <c r="BH7">
+        <v>0.9635530575908902</v>
       </c>
       <c r="BI7">
-        <v>1.013486589469467</v>
+        <v>1.027169781036905</v>
       </c>
       <c r="BJ7">
-        <v>1.006017840777054</v>
+        <v>0.9522651882935103</v>
       </c>
       <c r="BK7">
-        <v>1.008093001360753</v>
+        <v>0.9208206980606262</v>
+      </c>
+      <c r="BL7">
+        <v>1.003552284113191</v>
+      </c>
+      <c r="BM7">
+        <v>0.9969402860283447</v>
+      </c>
+      <c r="BN7">
+        <v>0.9418803914613534</v>
+      </c>
+      <c r="BO7">
+        <v>1.012124434461011</v>
       </c>
       <c r="BP7">
-        <v>0.9946767785373195</v>
+        <v>0.9755365384815329</v>
+      </c>
+      <c r="BQ7">
+        <v>0.9993779627333547</v>
       </c>
       <c r="BR7">
-        <v>0.988424776809782</v>
-      </c>
-      <c r="BS7">
-        <v>1.032858042337023</v>
+        <v>1.021939842138252</v>
+      </c>
+      <c r="BT7">
+        <v>1.006395900462526</v>
       </c>
       <c r="BU7">
-        <v>1.023736140938724</v>
+        <v>1.001637764203887</v>
       </c>
       <c r="BV7">
-        <v>0.9898682959160879</v>
+        <v>0.9378134372159244</v>
+      </c>
+      <c r="BW7">
+        <v>1.020686484039679</v>
+      </c>
+      <c r="BX7">
+        <v>0.9840505605901002</v>
+      </c>
+      <c r="BY7">
+        <v>0.9986030033075411</v>
+      </c>
+      <c r="BZ7">
+        <v>0.9618557682729995</v>
+      </c>
+      <c r="CA7">
+        <v>0.9632429635842679</v>
+      </c>
+      <c r="CB7">
+        <v>1.007203337073076</v>
+      </c>
+      <c r="CC7">
+        <v>0.9946454962440583</v>
+      </c>
+      <c r="CD7">
+        <v>0.9757200014444812</v>
+      </c>
+      <c r="CE7">
+        <v>0.9316987568582584</v>
       </c>
       <c r="CF7">
-        <v>1.001296636771656</v>
+        <v>0.9926302310621848</v>
       </c>
       <c r="CG7">
-        <v>1.001033754750524</v>
+        <v>1.068437526278262</v>
       </c>
       <c r="CH7">
-        <v>0.9692613991953658</v>
+        <v>0.9764656989169692</v>
+      </c>
+      <c r="CI7">
+        <v>0.990014586265193</v>
+      </c>
+      <c r="CK7">
+        <v>0.9932174894911777</v>
+      </c>
+      <c r="CL7">
+        <v>1.004333232477779</v>
+      </c>
+      <c r="CM7">
+        <v>1.014183537227938</v>
+      </c>
+      <c r="CN7">
+        <v>1.087027884237889</v>
+      </c>
+      <c r="CO7">
+        <v>0.9904740529000635</v>
+      </c>
+      <c r="CP7">
+        <v>0.9979820199381436</v>
+      </c>
+      <c r="CQ7">
+        <v>0.9899474513304013</v>
+      </c>
+      <c r="CR7">
+        <v>1.044856649613268</v>
+      </c>
+      <c r="CS7">
+        <v>1.035008612109525</v>
+      </c>
+      <c r="CT7">
+        <v>0.9523190643558987</v>
+      </c>
+      <c r="CU7">
+        <v>0.9650300215284779</v>
+      </c>
+      <c r="CV7">
+        <v>1.011254788408824</v>
       </c>
     </row>
   </sheetData>
